--- a/Figures/Figures_Images.xlsx
+++ b/Figures/Figures_Images.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PedroAlmeida\Documents\Thesis\Thesis-hydroinformatics\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B3B543-A12F-42BB-B10C-264C87A2E15C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D205D37-BA8B-4A5D-8257-0D647D4B1DE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Offline Model Flow Chart" sheetId="2" r:id="rId1"/>
     <sheet name="Online Model Flow Chart" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21099,6 +21100,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>43815</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>170072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C28C3D-5F79-4CA6-875B-B7AB18D14A52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="850838"/>
+          <a:ext cx="5530215" cy="4256994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358141</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E230ED05-3479-4311-98CA-95957B401CF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771901" y="4455876"/>
+          <a:ext cx="1463040" cy="287534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -21451,7 +21545,7 @@
   </sheetPr>
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -22321,6 +22415,21 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9637F9A4-1FE1-4F86-B9AD-D75C8FC82423}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -22328,6 +22437,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100634FE86F61084543B818608D2EC34781" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b04634a6bc8b79b9addf1547d286cbdc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="711a4b5b-2544-4b07-9f1e-659d099f3aa4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e247bbf7c640a7592491e01bf9bf4761" ns2:_="">
     <xsd:import namespace="711a4b5b-2544-4b07-9f1e-659d099f3aa4"/>
@@ -22465,15 +22583,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40E4A950-5C29-4BAC-8D1D-27080AF96649}">
   <ds:schemaRefs>
@@ -22491,6 +22600,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54F8123B-74C7-4E43-98D9-CCE5AF36E5BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC54026-6C61-4902-9A0D-DBC37EDBA079}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22506,12 +22623,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54F8123B-74C7-4E43-98D9-CCE5AF36E5BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>